--- a/40Missions.xlsx
+++ b/40Missions.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magneton\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="11475" windowHeight="7230" firstSheet="8" activeTab="10"/>
   </bookViews>
@@ -477,6 +482,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -524,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4976,10 +4984,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E52"/>
+      <selection activeCell="A3" sqref="A3:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5023,16 +5031,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="E3">
-        <v>2.0804146221366548</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5040,16 +5048,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.0804146221366548</v>
+        <v>5.75</v>
       </c>
       <c r="E4">
-        <v>8.4804146221366548</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5057,16 +5065,16 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>8.4804146221366548</v>
+        <v>6.5</v>
       </c>
       <c r="E5">
-        <v>8.4804146221366548</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5074,16 +5082,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>8.4804146221366548</v>
+        <v>7.5</v>
       </c>
       <c r="E6">
-        <v>14.880414622136655</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5091,16 +5099,16 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>8.4804146221366548</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>14.880414622136655</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5114,27 +5122,27 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14.880414622136655</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>16.96082924427331</v>
+        <v>16.201388888888889</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>1.5079091007043548</v>
+        <v>16.201388888888889</v>
       </c>
       <c r="E9">
-        <v>4.25</v>
+        <v>17.201388888888889</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5151,7 +5159,7 @@
         <v>4.25</v>
       </c>
       <c r="E10">
-        <v>5.15</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5165,10 +5173,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.0961126394649119</v>
+        <v>5.25</v>
       </c>
       <c r="E11">
-        <v>6.5</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5176,55 +5184,55 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>6.5</v>
+        <v>7.75</v>
       </c>
       <c r="E12">
-        <v>7.4</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>7.6439339828220181</v>
-      </c>
       <c r="E13">
-        <v>7.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
         <v>12</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>7.75</v>
-      </c>
-      <c r="E14">
-        <v>8.35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5233,49 +5241,49 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.35</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>10.628225735084211</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>7.7021455104343186</v>
+        <v>12.25</v>
       </c>
       <c r="E16">
-        <v>10.25</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>10.25</v>
-      </c>
       <c r="E17">
-        <v>11.15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5284,61 +5292,61 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.15</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>13.697854489565682</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>9.0024233431480027</v>
+        <v>10.25</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="E20">
-        <v>12.05</v>
+        <v>11.423611111111111</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>12.05</v>
+        <v>11.423611111111111</v>
       </c>
       <c r="E21">
-        <v>14.047576656851998</v>
+        <v>13.173611111111111</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5352,10 +5360,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.259961222902128</v>
+        <v>13.173611111111111</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>13.381944444444445</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5363,16 +5371,16 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>13.381944444444445</v>
       </c>
       <c r="E23">
-        <v>14.9</v>
+        <v>14.381944444444445</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5386,10 +5394,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>14.969669914110089</v>
+        <v>14.381944444444445</v>
       </c>
       <c r="E24">
-        <v>15.5</v>
+        <v>14.527777777777779</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5397,16 +5405,16 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>15.5</v>
+        <v>14.527777777777779</v>
       </c>
       <c r="E25">
-        <v>16.399999999999999</v>
+        <v>15.527777777777779</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5420,10 +5428,10 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>16.399999999999999</v>
+        <v>15.527777777777779</v>
       </c>
       <c r="E26">
-        <v>16.567705098312484</v>
+        <v>15.673611111111112</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -5431,16 +5439,16 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>16.567705098312484</v>
+        <v>15.673611111111112</v>
       </c>
       <c r="E27">
-        <v>17.317705098312484</v>
+        <v>16.673611111111114</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -5448,16 +5456,16 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>17.317705098312484</v>
+        <v>15.527777777777779</v>
       </c>
       <c r="E28">
-        <v>17.588121443972284</v>
+        <v>17.277777777777779</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5465,16 +5473,16 @@
         <v>5</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>17.588121443972284</v>
+        <v>17.277777777777779</v>
       </c>
       <c r="E29">
-        <v>18.488121443972283</v>
+        <v>17.555555555555557</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5482,16 +5490,16 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>18.488121443972283</v>
+        <v>17.555555555555557</v>
       </c>
       <c r="E30">
-        <v>18.655826542284768</v>
+        <v>18.805555555555557</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5499,16 +5507,16 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>18.655826542284768</v>
+        <v>18.805555555555557</v>
       </c>
       <c r="E31">
-        <v>19.405826542284768</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -5516,21 +5524,21 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>19.405826542284768</v>
+        <v>19</v>
       </c>
       <c r="E32">
-        <v>21.881268422030686</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5539,27 +5547,27 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>13.919585377863346</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>16</v>
+        <v>20.298611111111111</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
+        <v>37</v>
+      </c>
+      <c r="C34">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
       <c r="D34">
-        <v>16</v>
+        <v>20.298611111111111</v>
       </c>
       <c r="E34">
-        <v>22.4</v>
+        <v>21.548611111111111</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -5567,16 +5575,16 @@
         <v>6</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>22.4</v>
+        <v>14.75</v>
       </c>
       <c r="E35">
-        <v>23.15</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5584,16 +5592,16 @@
         <v>6</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>23.15</v>
+        <v>15.75</v>
       </c>
       <c r="E36">
-        <v>29.549999999999997</v>
+        <v>16.020833333333332</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -5601,21 +5609,21 @@
         <v>6</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>29.549999999999997</v>
+        <v>16.020833333333332</v>
       </c>
       <c r="E37">
-        <v>31.055199322349033</v>
+        <v>17.270833333333332</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5624,32 +5632,32 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>16.274558120254081</v>
+        <v>17.270833333333332</v>
       </c>
       <c r="E38">
-        <v>18.75</v>
+        <v>17.513888888888889</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>18.75</v>
+        <v>17.513888888888889</v>
       </c>
       <c r="E39">
-        <v>19.649999999999999</v>
+        <v>18.513888888888889</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5658,32 +5666,32 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>19.649999999999999</v>
+        <v>18.513888888888889</v>
       </c>
       <c r="E40">
-        <v>20.024999999999999</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>20.024999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="E41">
-        <v>20.924999999999997</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5692,49 +5700,49 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>20.924999999999997</v>
+        <v>20.5</v>
       </c>
       <c r="E42">
-        <v>23.028642674029975</v>
+        <v>20.770833333333332</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>16.856623574824059</v>
+        <v>20.770833333333332</v>
       </c>
       <c r="E43">
-        <v>19</v>
+        <v>28.770833333333332</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>14.25</v>
       </c>
       <c r="E44">
-        <v>19.899999999999999</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5743,32 +5751,32 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>22.403592743632149</v>
+        <v>15.25</v>
       </c>
       <c r="E45">
-        <v>23.75</v>
+        <v>15.395833333333334</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>23.75</v>
+        <v>15.395833333333334</v>
       </c>
       <c r="E46">
-        <v>24.65</v>
+        <v>16.895833333333336</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5777,95 +5785,299 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>24.65</v>
+        <v>16.895833333333336</v>
       </c>
       <c r="E47">
-        <v>26.730414622136653</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>20.058288184073191</v>
+        <v>18.75</v>
       </c>
       <c r="E48">
-        <v>22.75</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>22.75</v>
+        <v>19.75</v>
       </c>
       <c r="E49">
-        <v>23.65</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>23.65</v>
+        <v>23.25</v>
       </c>
       <c r="E50">
-        <v>23.959232921921323</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>5</v>
       </c>
       <c r="D51">
-        <v>23.959232921921323</v>
+        <v>15.25</v>
       </c>
       <c r="E51">
-        <v>24.559232921921325</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>16.25</v>
+      </c>
+      <c r="E52">
+        <v>16.291666666666668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>16.291666666666668</v>
+      </c>
+      <c r="E53">
+        <v>17.291666666666668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>17.291666666666668</v>
+      </c>
+      <c r="E54">
+        <v>17.340277777777779</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>17.340277777777779</v>
+      </c>
+      <c r="E55">
+        <v>18.840277777777779</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>18.840277777777779</v>
+      </c>
+      <c r="E56">
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>18.888888888888889</v>
+      </c>
+      <c r="E57">
+        <v>20.138888888888889</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>20.138888888888889</v>
+      </c>
+      <c r="E58">
+        <v>20.243055555555557</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>20.243055555555557</v>
+      </c>
+      <c r="E59">
+        <v>21.743055555555557</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>21.743055555555557</v>
+      </c>
+      <c r="E60">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>22.75</v>
+      </c>
+      <c r="E61">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>23.75</v>
+      </c>
+      <c r="E62">
+        <v>23.951388888888889</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>29</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>23.951388888888889</v>
+      </c>
+      <c r="E63">
+        <v>24.951388888888889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>9</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>24.559232921921325</v>
-      </c>
-      <c r="E52">
-        <v>27.407313415868082</v>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>18.25</v>
+      </c>
+      <c r="E64">
+        <v>26.25</v>
       </c>
     </row>
   </sheetData>
